--- a/colormap.xlsx
+++ b/colormap.xlsx
@@ -4,10 +4,26 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10820" yWindow="0" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="2080" yWindow="360" windowWidth="25600" windowHeight="16060" tabRatio="831" activeTab="16"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="O.C." sheetId="1" r:id="rId1"/>
+    <sheet name="O.M." sheetId="2" r:id="rId2"/>
+    <sheet name="B" sheetId="3" r:id="rId3"/>
+    <sheet name="CEC" sheetId="4" r:id="rId4"/>
+    <sheet name="Clay" sheetId="5" r:id="rId5"/>
+    <sheet name="Sand" sheetId="6" r:id="rId6"/>
+    <sheet name="Silt" sheetId="7" r:id="rId7"/>
+    <sheet name="Ca" sheetId="8" r:id="rId8"/>
+    <sheet name="Mg" sheetId="9" r:id="rId9"/>
+    <sheet name="Mn" sheetId="10" r:id="rId10"/>
+    <sheet name="Na" sheetId="11" r:id="rId11"/>
+    <sheet name="Fe" sheetId="12" r:id="rId12"/>
+    <sheet name="Al" sheetId="13" r:id="rId13"/>
+    <sheet name="K" sheetId="14" r:id="rId14"/>
+    <sheet name="P" sheetId="15" r:id="rId15"/>
+    <sheet name="pH" sheetId="16" r:id="rId16"/>
+    <sheet name="Zn" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="39">
   <si>
     <t>Value</t>
   </si>
@@ -42,20 +58,107 @@
     <t>low</t>
   </si>
   <si>
-    <t>Properties: oc, clay, sand, silt</t>
-  </si>
-  <si>
-    <t>Properties: al</t>
-  </si>
-  <si>
-    <t>Properties: b, ca, cec, cu, mg, mn, na, p, zn, pH</t>
+    <t>Long Name</t>
+  </si>
+  <si>
+    <t>Short Name</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Power of Hydrogen</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>Phosphorus</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Potassium</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Aluminium</t>
+  </si>
+  <si>
+    <t>Al</t>
+  </si>
+  <si>
+    <t>Iron</t>
+  </si>
+  <si>
+    <t>Fe</t>
+  </si>
+  <si>
+    <t>Sodium</t>
+  </si>
+  <si>
+    <t>Na</t>
+  </si>
+  <si>
+    <t>Manganese</t>
+  </si>
+  <si>
+    <t>Mn</t>
+  </si>
+  <si>
+    <t>Magnesium</t>
+  </si>
+  <si>
+    <t>Mg</t>
+  </si>
+  <si>
+    <t>Calcium</t>
+  </si>
+  <si>
+    <t>Ca</t>
+  </si>
+  <si>
+    <t>Silt</t>
+  </si>
+  <si>
+    <t>Sand</t>
+  </si>
+  <si>
+    <t>Clay</t>
+  </si>
+  <si>
+    <t>Cation Exchange Capacity</t>
+  </si>
+  <si>
+    <t>CEC</t>
+  </si>
+  <si>
+    <t>Boron</t>
+  </si>
+  <si>
+    <t>Organic Matter</t>
+  </si>
+  <si>
+    <t>Zn</t>
+  </si>
+  <si>
+    <t>Zinc</t>
+  </si>
+  <si>
+    <t>Organic Carbon</t>
+  </si>
+  <si>
+    <t>O.C.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -64,9 +167,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -89,14 +207,390 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="189">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -434,181 +928,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
-        <v>255</v>
-      </c>
-      <c r="C3">
-        <v>243</v>
-      </c>
-      <c r="D3">
-        <v>204</v>
-      </c>
-      <c r="E3">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="E2" s="1">
+        <v>255</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>76</v>
-      </c>
-      <c r="C4">
-        <v>64</v>
-      </c>
-      <c r="D4">
-        <v>25</v>
-      </c>
-      <c r="E4">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>255</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>255</v>
-      </c>
-      <c r="E9">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>255</v>
-      </c>
-      <c r="E13">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14">
-        <v>255</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>255</v>
-      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>255</v>
+      </c>
+      <c r="H3" s="1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -619,4 +1020,1402 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>255</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>255</v>
+      </c>
+      <c r="H3">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>255</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>255</v>
+      </c>
+      <c r="H3">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>255</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>255</v>
+      </c>
+      <c r="H3">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>255</v>
+      </c>
+      <c r="F2">
+        <v>243</v>
+      </c>
+      <c r="G2">
+        <v>204</v>
+      </c>
+      <c r="H2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>76</v>
+      </c>
+      <c r="F3">
+        <v>64</v>
+      </c>
+      <c r="G3">
+        <v>25</v>
+      </c>
+      <c r="H3">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>255</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>255</v>
+      </c>
+      <c r="H3">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>255</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>255</v>
+      </c>
+      <c r="H3">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>255</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>255</v>
+      </c>
+      <c r="H3">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>255</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>255</v>
+      </c>
+      <c r="H3">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1">
+        <v>255</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>255</v>
+      </c>
+      <c r="H3" s="1">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>255</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>255</v>
+      </c>
+      <c r="H3">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>255</v>
+      </c>
+      <c r="F2">
+        <v>243</v>
+      </c>
+      <c r="G2">
+        <v>204</v>
+      </c>
+      <c r="H2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>76</v>
+      </c>
+      <c r="F3">
+        <v>64</v>
+      </c>
+      <c r="G3">
+        <v>25</v>
+      </c>
+      <c r="H3">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>255</v>
+      </c>
+      <c r="F2">
+        <v>243</v>
+      </c>
+      <c r="G2">
+        <v>204</v>
+      </c>
+      <c r="H2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>76</v>
+      </c>
+      <c r="F3">
+        <v>64</v>
+      </c>
+      <c r="G3">
+        <v>25</v>
+      </c>
+      <c r="H3">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>255</v>
+      </c>
+      <c r="F2">
+        <v>243</v>
+      </c>
+      <c r="G2">
+        <v>204</v>
+      </c>
+      <c r="H2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>76</v>
+      </c>
+      <c r="F3">
+        <v>64</v>
+      </c>
+      <c r="G3">
+        <v>25</v>
+      </c>
+      <c r="H3">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>255</v>
+      </c>
+      <c r="F2">
+        <v>243</v>
+      </c>
+      <c r="G2">
+        <v>204</v>
+      </c>
+      <c r="H2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>76</v>
+      </c>
+      <c r="F3">
+        <v>64</v>
+      </c>
+      <c r="G3">
+        <v>25</v>
+      </c>
+      <c r="H3">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>255</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>255</v>
+      </c>
+      <c r="H3">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>255</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>255</v>
+      </c>
+      <c r="H3">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/colormap.xlsx
+++ b/colormap.xlsx
@@ -4,26 +4,30 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2080" yWindow="360" windowWidth="25600" windowHeight="16060" tabRatio="831" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460" tabRatio="897" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="O.C." sheetId="1" r:id="rId1"/>
-    <sheet name="O.M." sheetId="2" r:id="rId2"/>
-    <sheet name="B" sheetId="3" r:id="rId3"/>
-    <sheet name="CEC" sheetId="4" r:id="rId4"/>
-    <sheet name="Clay" sheetId="5" r:id="rId5"/>
-    <sheet name="Sand" sheetId="6" r:id="rId6"/>
-    <sheet name="Silt" sheetId="7" r:id="rId7"/>
-    <sheet name="Ca" sheetId="8" r:id="rId8"/>
-    <sheet name="Mg" sheetId="9" r:id="rId9"/>
-    <sheet name="Mn" sheetId="10" r:id="rId10"/>
-    <sheet name="Na" sheetId="11" r:id="rId11"/>
-    <sheet name="Fe" sheetId="12" r:id="rId12"/>
-    <sheet name="Al" sheetId="13" r:id="rId13"/>
-    <sheet name="K" sheetId="14" r:id="rId14"/>
-    <sheet name="P" sheetId="15" r:id="rId15"/>
-    <sheet name="pH" sheetId="16" r:id="rId16"/>
-    <sheet name="Zn" sheetId="17" r:id="rId17"/>
+    <sheet name="MasterMaps" sheetId="19" r:id="rId1"/>
+    <sheet name="O.C." sheetId="1" r:id="rId2"/>
+    <sheet name="O.M." sheetId="2" r:id="rId3"/>
+    <sheet name="B" sheetId="3" r:id="rId4"/>
+    <sheet name="CEC" sheetId="4" r:id="rId5"/>
+    <sheet name="Clay" sheetId="5" r:id="rId6"/>
+    <sheet name="Sand" sheetId="6" r:id="rId7"/>
+    <sheet name="Silt" sheetId="7" r:id="rId8"/>
+    <sheet name="Ca" sheetId="8" r:id="rId9"/>
+    <sheet name="Mg" sheetId="9" r:id="rId10"/>
+    <sheet name="Mn" sheetId="10" r:id="rId11"/>
+    <sheet name="Na" sheetId="11" r:id="rId12"/>
+    <sheet name="Fe" sheetId="12" r:id="rId13"/>
+    <sheet name="Al" sheetId="13" r:id="rId14"/>
+    <sheet name="K" sheetId="14" r:id="rId15"/>
+    <sheet name="P" sheetId="15" r:id="rId16"/>
+    <sheet name="pH" sheetId="16" r:id="rId17"/>
+    <sheet name="Zn" sheetId="17" r:id="rId18"/>
+    <sheet name="Classes" sheetId="20" r:id="rId19"/>
+    <sheet name="Cu" sheetId="21" r:id="rId20"/>
+    <sheet name="S" sheetId="22" r:id="rId21"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -35,123 +39,159 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="39">
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="51">
   <si>
     <t>B</t>
   </si>
   <si>
-    <t>Opacity</t>
-  </si>
-  <si>
     <t>high</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>Long Name</t>
-  </si>
-  <si>
-    <t>Short Name</t>
-  </si>
-  <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Power of Hydrogen</t>
+    <t>Al</t>
+  </si>
+  <si>
+    <t>Filename</t>
+  </si>
+  <si>
+    <t>clp_al.tif</t>
+  </si>
+  <si>
+    <t>mg/kg</t>
+  </si>
+  <si>
+    <t>clp_om.tif</t>
+  </si>
+  <si>
+    <t>O.M.</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>O.C.</t>
+  </si>
+  <si>
+    <t>CEC</t>
+  </si>
+  <si>
+    <t>Clay</t>
+  </si>
+  <si>
+    <t>Sand</t>
+  </si>
+  <si>
+    <t>Silt</t>
+  </si>
+  <si>
+    <t>Ca</t>
+  </si>
+  <si>
+    <t>Mg</t>
+  </si>
+  <si>
+    <t>Mn</t>
+  </si>
+  <si>
+    <t>Na</t>
+  </si>
+  <si>
+    <t>Fe</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>P</t>
   </si>
   <si>
     <t>pH</t>
   </si>
   <si>
-    <t>Phosphorus</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Potassium</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>Aluminium</t>
-  </si>
-  <si>
-    <t>Al</t>
-  </si>
-  <si>
-    <t>Iron</t>
-  </si>
-  <si>
-    <t>Fe</t>
-  </si>
-  <si>
-    <t>Sodium</t>
-  </si>
-  <si>
-    <t>Na</t>
-  </si>
-  <si>
-    <t>Manganese</t>
-  </si>
-  <si>
-    <t>Mn</t>
-  </si>
-  <si>
-    <t>Magnesium</t>
-  </si>
-  <si>
-    <t>Mg</t>
-  </si>
-  <si>
-    <t>Calcium</t>
-  </si>
-  <si>
-    <t>Ca</t>
-  </si>
-  <si>
-    <t>Silt</t>
-  </si>
-  <si>
-    <t>Sand</t>
-  </si>
-  <si>
-    <t>Clay</t>
-  </si>
-  <si>
-    <t>Cation Exchange Capacity</t>
-  </si>
-  <si>
-    <t>CEC</t>
-  </si>
-  <si>
-    <t>Boron</t>
-  </si>
-  <si>
-    <t>Organic Matter</t>
-  </si>
-  <si>
     <t>Zn</t>
   </si>
   <si>
-    <t>Zinc</t>
-  </si>
-  <si>
-    <t>Organic Carbon</t>
-  </si>
-  <si>
-    <t>O.C.</t>
+    <t>clp_b.tif</t>
+  </si>
+  <si>
+    <t>clp_Classes.tif</t>
+  </si>
+  <si>
+    <t>clp_mg.tif</t>
+  </si>
+  <si>
+    <t>clp_oc.tif</t>
+  </si>
+  <si>
+    <t>clp_sand.tif</t>
+  </si>
+  <si>
+    <t>clp_silt.tif</t>
+  </si>
+  <si>
+    <t>clp_ca.tif</t>
+  </si>
+  <si>
+    <t>clp_mn.tif</t>
+  </si>
+  <si>
+    <t>clp_na.tif</t>
+  </si>
+  <si>
+    <t>clp_fe.tif</t>
+  </si>
+  <si>
+    <t>clp_k.tif</t>
+  </si>
+  <si>
+    <t>clp_p.tif</t>
+  </si>
+  <si>
+    <t>clp_ph.tif</t>
+  </si>
+  <si>
+    <t>clp_zn.tif</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>clp_cec.tif</t>
+  </si>
+  <si>
+    <t>Classes</t>
+  </si>
+  <si>
+    <t>clp_clay.tif</t>
+  </si>
+  <si>
+    <t>clp_cu.tif</t>
+  </si>
+  <si>
+    <t>Cu</t>
+  </si>
+  <si>
+    <t>clp_s.tif</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -207,8 +247,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="189">
+  <cellStyleXfs count="211">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -402,7 +464,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="189">
+  <cellStyles count="211">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -497,6 +559,17 @@
     <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -591,6 +664,17 @@
     <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -928,92 +1012,263 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H3"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1">
-        <v>255</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>255</v>
-      </c>
-      <c r="H3" s="1">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1024,77 +1279,62 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>7</v>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>255</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>255</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="D3" t="s">
-        <v>5</v>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>255</v>
       </c>
       <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>255</v>
-      </c>
-      <c r="H3">
         <v>255</v>
       </c>
     </row>
@@ -1111,77 +1351,62 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:H3"/>
+      <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>7</v>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>255</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>255</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="D3" t="s">
-        <v>5</v>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>255</v>
       </c>
       <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>255</v>
-      </c>
-      <c r="H3">
         <v>255</v>
       </c>
     </row>
@@ -1198,77 +1423,62 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>7</v>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>255</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>255</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="D3" t="s">
-        <v>5</v>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>255</v>
       </c>
       <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>255</v>
-      </c>
-      <c r="H3">
         <v>255</v>
       </c>
     </row>
@@ -1285,77 +1495,62 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:H3"/>
+      <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>7</v>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>255</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>255</v>
-      </c>
-      <c r="F2">
-        <v>243</v>
-      </c>
-      <c r="G2">
-        <v>204</v>
-      </c>
-      <c r="H2">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="D3" t="s">
-        <v>5</v>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>255</v>
       </c>
       <c r="E3">
-        <v>76</v>
-      </c>
-      <c r="F3">
-        <v>64</v>
-      </c>
-      <c r="G3">
-        <v>25</v>
-      </c>
-      <c r="H3">
         <v>255</v>
       </c>
     </row>
@@ -1372,77 +1567,62 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>7</v>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>255</v>
+      </c>
+      <c r="C2">
+        <v>243</v>
+      </c>
+      <c r="D2">
+        <v>204</v>
+      </c>
+      <c r="E2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>255</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="D3" t="s">
-        <v>5</v>
+      <c r="B3">
+        <v>76</v>
+      </c>
+      <c r="C3">
+        <v>64</v>
+      </c>
+      <c r="D3">
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>255</v>
-      </c>
-      <c r="H3">
         <v>255</v>
       </c>
     </row>
@@ -1459,77 +1639,62 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:H3"/>
+      <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>7</v>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>255</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>255</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="D3" t="s">
-        <v>5</v>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>255</v>
       </c>
       <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>255</v>
-      </c>
-      <c r="H3">
         <v>255</v>
       </c>
     </row>
@@ -1546,80 +1711,62 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>7</v>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>255</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>255</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="D3" t="s">
-        <v>5</v>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>255</v>
       </c>
       <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>255</v>
-      </c>
-      <c r="H3">
         <v>255</v>
       </c>
     </row>
@@ -1636,77 +1783,410 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>255</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>255</v>
+      </c>
+      <c r="E3">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>215</v>
+      </c>
+      <c r="C2">
+        <v>25</v>
+      </c>
+      <c r="D2">
+        <v>28</v>
+      </c>
+      <c r="E2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>1.75</v>
+      </c>
+      <c r="B3">
+        <v>253</v>
+      </c>
+      <c r="C3">
+        <v>174</v>
+      </c>
+      <c r="D3">
+        <v>97</v>
+      </c>
+      <c r="E3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>2.5</v>
+      </c>
+      <c r="B4">
+        <v>255</v>
+      </c>
+      <c r="C4">
+        <v>255</v>
+      </c>
+      <c r="D4">
+        <v>191</v>
+      </c>
+      <c r="E4">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>3.25</v>
+      </c>
+      <c r="B5">
+        <v>171</v>
+      </c>
+      <c r="C5">
+        <v>221</v>
+      </c>
+      <c r="D5">
+        <v>164</v>
+      </c>
+      <c r="E5">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>43</v>
+      </c>
+      <c r="C6">
+        <v>131</v>
+      </c>
+      <c r="D6">
+        <v>186</v>
+      </c>
+      <c r="E6">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>88</v>
+      </c>
+      <c r="C2">
+        <v>78</v>
+      </c>
+      <c r="D2">
+        <v>92</v>
+      </c>
+      <c r="E2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>90</v>
+      </c>
+      <c r="C3">
+        <v>40</v>
+      </c>
+      <c r="D3">
+        <v>90</v>
+      </c>
+      <c r="E3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>42</v>
+      </c>
+      <c r="C4">
+        <v>44</v>
+      </c>
+      <c r="D4">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>180</v>
+      </c>
+      <c r="C5">
+        <v>67</v>
+      </c>
+      <c r="D5">
+        <v>243</v>
+      </c>
+      <c r="E5">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>213</v>
+      </c>
+      <c r="C6">
+        <v>185</v>
+      </c>
+      <c r="D6">
+        <v>92</v>
+      </c>
+      <c r="E6">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>156</v>
+      </c>
+      <c r="C7">
+        <v>84</v>
+      </c>
+      <c r="D7">
+        <v>195</v>
+      </c>
+      <c r="E7">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B8">
+        <v>72</v>
+      </c>
+      <c r="C8">
+        <v>76</v>
+      </c>
+      <c r="D8">
+        <v>62</v>
+      </c>
+      <c r="E8">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B9">
+        <v>205</v>
+      </c>
+      <c r="C9">
+        <v>151</v>
+      </c>
+      <c r="D9">
+        <v>198</v>
+      </c>
+      <c r="E9">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="B10">
+        <v>222</v>
+      </c>
+      <c r="C10">
+        <v>175</v>
+      </c>
+      <c r="D10">
+        <v>45</v>
+      </c>
+      <c r="E10">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>255</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>255</v>
-      </c>
-      <c r="H3">
+      <c r="C11">
+        <v>97</v>
+      </c>
+      <c r="D11">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>210</v>
+      </c>
+      <c r="C12">
+        <v>164</v>
+      </c>
+      <c r="D12">
+        <v>142</v>
+      </c>
+      <c r="E12">
         <v>255</v>
       </c>
     </row>
@@ -1723,80 +2203,260 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>255</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>255</v>
+      </c>
+      <c r="E3" s="1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B2">
+        <v>215</v>
+      </c>
+      <c r="C2">
+        <v>25</v>
+      </c>
+      <c r="D2">
+        <v>28</v>
+      </c>
+      <c r="E2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>1.25</v>
+      </c>
+      <c r="B3">
+        <v>253</v>
+      </c>
+      <c r="C3">
+        <v>174</v>
+      </c>
+      <c r="D3">
+        <v>97</v>
+      </c>
+      <c r="E3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>1.5</v>
+      </c>
+      <c r="B4">
+        <v>255</v>
+      </c>
+      <c r="C4">
+        <v>255</v>
+      </c>
+      <c r="D4">
+        <v>191</v>
+      </c>
+      <c r="E4">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>1.75</v>
+      </c>
+      <c r="B5">
+        <v>171</v>
+      </c>
+      <c r="C5">
+        <v>221</v>
+      </c>
+      <c r="D5">
+        <v>164</v>
+      </c>
+      <c r="E5">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1">
-        <v>255</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>255</v>
-      </c>
-      <c r="H3" s="1">
+      <c r="B6">
+        <v>43</v>
+      </c>
+      <c r="C6">
+        <v>131</v>
+      </c>
+      <c r="D6">
+        <v>186</v>
+      </c>
+      <c r="E6">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>255</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>255</v>
+      </c>
+      <c r="E3">
         <v>255</v>
       </c>
     </row>
@@ -1813,77 +2473,62 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:H3"/>
+      <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>7</v>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>255</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>255</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>255</v>
-      </c>
-      <c r="H3">
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>255</v>
+      </c>
+      <c r="E3" s="1">
         <v>255</v>
       </c>
     </row>
@@ -1900,77 +2545,62 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:H3"/>
+      <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>7</v>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>255</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>255</v>
-      </c>
-      <c r="F2">
-        <v>243</v>
-      </c>
-      <c r="G2">
-        <v>204</v>
-      </c>
-      <c r="H2">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="D3" t="s">
-        <v>5</v>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>255</v>
       </c>
       <c r="E3">
-        <v>76</v>
-      </c>
-      <c r="F3">
-        <v>64</v>
-      </c>
-      <c r="G3">
-        <v>25</v>
-      </c>
-      <c r="H3">
         <v>255</v>
       </c>
     </row>
@@ -1987,77 +2617,62 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:H3"/>
+      <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>7</v>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>255</v>
+      </c>
+      <c r="C2">
+        <v>243</v>
+      </c>
+      <c r="D2">
+        <v>204</v>
+      </c>
+      <c r="E2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>255</v>
-      </c>
-      <c r="F2">
-        <v>243</v>
-      </c>
-      <c r="G2">
-        <v>204</v>
-      </c>
-      <c r="H2">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="D3" t="s">
-        <v>5</v>
+      <c r="B3">
+        <v>76</v>
+      </c>
+      <c r="C3">
+        <v>64</v>
+      </c>
+      <c r="D3">
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>76</v>
-      </c>
-      <c r="F3">
-        <v>64</v>
-      </c>
-      <c r="G3">
-        <v>25</v>
-      </c>
-      <c r="H3">
         <v>255</v>
       </c>
     </row>
@@ -2074,77 +2689,62 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:H3"/>
+      <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>7</v>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>255</v>
+      </c>
+      <c r="C2">
+        <v>243</v>
+      </c>
+      <c r="D2">
+        <v>204</v>
+      </c>
+      <c r="E2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>255</v>
-      </c>
-      <c r="F2">
-        <v>243</v>
-      </c>
-      <c r="G2">
-        <v>204</v>
-      </c>
-      <c r="H2">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="D3" t="s">
-        <v>5</v>
+      <c r="B3">
+        <v>76</v>
+      </c>
+      <c r="C3">
+        <v>64</v>
+      </c>
+      <c r="D3">
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>76</v>
-      </c>
-      <c r="F3">
-        <v>64</v>
-      </c>
-      <c r="G3">
-        <v>25</v>
-      </c>
-      <c r="H3">
         <v>255</v>
       </c>
     </row>
@@ -2161,77 +2761,62 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>7</v>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>255</v>
+      </c>
+      <c r="C2">
+        <v>243</v>
+      </c>
+      <c r="D2">
+        <v>204</v>
+      </c>
+      <c r="E2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>255</v>
-      </c>
-      <c r="F2">
-        <v>243</v>
-      </c>
-      <c r="G2">
-        <v>204</v>
-      </c>
-      <c r="H2">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="D3" t="s">
-        <v>5</v>
+      <c r="B3">
+        <v>76</v>
+      </c>
+      <c r="C3">
+        <v>64</v>
+      </c>
+      <c r="D3">
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>76</v>
-      </c>
-      <c r="F3">
-        <v>64</v>
-      </c>
-      <c r="G3">
-        <v>25</v>
-      </c>
-      <c r="H3">
         <v>255</v>
       </c>
     </row>
@@ -2248,77 +2833,62 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:H3"/>
+      <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>7</v>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>255</v>
+      </c>
+      <c r="C2">
+        <v>243</v>
+      </c>
+      <c r="D2">
+        <v>204</v>
+      </c>
+      <c r="E2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>255</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="D3" t="s">
-        <v>5</v>
+      <c r="B3">
+        <v>76</v>
+      </c>
+      <c r="C3">
+        <v>64</v>
+      </c>
+      <c r="D3">
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>255</v>
-      </c>
-      <c r="H3">
         <v>255</v>
       </c>
     </row>
@@ -2335,77 +2905,62 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:H3"/>
+      <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>7</v>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>255</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>255</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="D3" t="s">
-        <v>5</v>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>255</v>
       </c>
       <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>255</v>
-      </c>
-      <c r="H3">
         <v>255</v>
       </c>
     </row>

--- a/colormap.xlsx
+++ b/colormap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460" tabRatio="897" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460" tabRatio="897"/>
   </bookViews>
   <sheets>
     <sheet name="MasterMaps" sheetId="19" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="54">
   <si>
     <t>B</t>
   </si>
@@ -192,6 +192,15 @@
   </si>
   <si>
     <t>a</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>streched</t>
+  </si>
+  <si>
+    <t>discrete</t>
   </si>
 </sst>
 </file>
@@ -1012,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1024,7 +1033,7 @@
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1034,8 +1043,11 @@
       <c r="C1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1045,8 +1057,11 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1056,8 +1071,11 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -1067,8 +1085,11 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1078,8 +1099,11 @@
       <c r="C5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -1089,8 +1113,11 @@
       <c r="C6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1100,8 +1127,11 @@
       <c r="C7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -1111,8 +1141,11 @@
       <c r="C8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1122,8 +1155,11 @@
       <c r="C9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1133,8 +1169,11 @@
       <c r="C10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1144,8 +1183,11 @@
       <c r="C11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -1155,8 +1197,11 @@
       <c r="C12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -1166,8 +1211,11 @@
       <c r="C13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -1177,8 +1225,11 @@
       <c r="C14" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -1188,8 +1239,11 @@
       <c r="C15" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -1199,8 +1253,11 @@
       <c r="C16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -1210,8 +1267,11 @@
       <c r="C17" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -1221,8 +1281,11 @@
       <c r="C18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -1232,8 +1295,11 @@
       <c r="C19" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -1243,8 +1309,11 @@
       <c r="C20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -1254,8 +1323,11 @@
       <c r="C21" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -1264,6 +1336,9 @@
       </c>
       <c r="C22" t="s">
         <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2205,7 +2280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
